--- a/Implementation Checkbook.xlsx
+++ b/Implementation Checkbook.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dtruman\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dtruman\Documents\Rich Animation\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Implementations</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Put an X in the Checked Off box when implementation is done.</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:J5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +447,9 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
